--- a/medicine/Enfance/Mystery_of_Crocodile_Island/Mystery_of_Crocodile_Island.xlsx
+++ b/medicine/Enfance/Mystery_of_Crocodile_Island/Mystery_of_Crocodile_Island.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mystery of Crocodile Island (littéralement : « Mystère à l’Île aux crocodiles ») est le cinquante cinquième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur est Harriet Adams. 
+Mystery of Crocodile Island (littéralement : « Mystère à l’Île aux crocodiles ») est le cinquante cinquième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur est Harriet Adams. 
 Aux États-Unis, le roman a été publié pour la première fois en 1978 par Grosset &amp; Dunlap (New York). 
 Il est inédit en France. 
 </t>
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Gonzalez, propriétaire en Floride d'un refuge pour crocodiles, demande l'aide de son vieil ami d’université, l'avocat James Roy, car des braconniers sévissent sur ses terres. L'avocat mande sa fille Alice et les amies de celle-ci, Bess et Marion, sur l'île Key Biscayne, dite l'île aux crocodiles, où elles seront hébergées chez la famille Cosgrove. 
 Au sortir de l’aéroport, un chauffeur de limousine disant être envoyé par les Cosgrove, enlève les jeunes filles et les enferme dans une maison sur l'île Key Biscayne. Les prisonnières s'échappent en crochetant la serrure, alertent la police, et se rendent chez les véritables Cosgrove. Le fils, Danny, propose de les aider dans leur enquête.
@@ -548,11 +562,13 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Alice Roy, dix-huit ans, détective amateur blonde, orpheline de mère, fille de James Roy.
-James Roy, avoué[2] de renom, père d'Alice Roy, veuf.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
 Sarah : la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
